--- a/MazeList_Generator/MazeList.xlsx
+++ b/MazeList_Generator/MazeList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="713" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="713"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>7</v>
@@ -1302,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -1339,7 +1339,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>9</v>
